--- a/download/CurrentDateTime.xlsx
+++ b/download/CurrentDateTime.xlsx
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>13/2/2025, 11:07:31 am</v>
+        <v>17/2/2025, 3:35:49 pm</v>
       </c>
     </row>
   </sheetData>

--- a/download/CurrentDateTime.xlsx
+++ b/download/CurrentDateTime.xlsx
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>17/2/2025, 3:35:49 pm</v>
+        <v>17/2/2025, 5:28:41 pm</v>
       </c>
     </row>
   </sheetData>
